--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -73,13 +73,13 @@
     <t>1, 2, 4</t>
   </si>
   <si>
-    <t>Creating use case</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Creating use cases</t>
+  </si>
+  <si>
+    <t>Drawing SSDs</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -758,16 +758,16 @@
         <v>42305</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13">
         <v>4</v>
@@ -784,8 +784,30 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>42306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="16" t="s">
         <v>7</v>
       </c>

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -28,9 +28,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Creation of projectplan</t>
-  </si>
-  <si>
     <t>Individual</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Use Case Namn</t>
   </si>
   <si>
-    <t>Group meeting (Iteration planning)</t>
-  </si>
-  <si>
     <t>1, 2, 4</t>
   </si>
   <si>
@@ -79,7 +73,19 @@
     <t>Creating use cases</t>
   </si>
   <si>
-    <t>Drawing SSDs</t>
+    <t>Ritade SSDs</t>
+  </si>
+  <si>
+    <t>Skapade use cases</t>
+  </si>
+  <si>
+    <t>Skapande av projectplanering</t>
+  </si>
+  <si>
+    <t>Grupp möte (Iterations planering)</t>
+  </si>
+  <si>
+    <t>Ritade DCDs</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,26 +630,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="14"/>
       <c r="I1" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -662,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -677,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -696,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -708,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -730,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -742,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -761,19 +767,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="13">
         <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -789,33 +795,45 @@
         <v>42306</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>42307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -842,10 +860,10 @@
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ritade DCDs</t>
+  </si>
+  <si>
+    <t>Påbörjade designen av GUI</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,25 +846,39 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>42310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="12">
         <v>2</v>
       </c>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="I10" s="12">
         <v>3</v>
       </c>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="I11" s="13">
         <v>4</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+    </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="I13" s="16" t="s">
         <v>14</v>
       </c>
@@ -867,26 +887,663 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="I14" s="12">
         <v>1</v>
       </c>
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
       <c r="I15" s="12">
         <v>2</v>
       </c>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="I16" s="12">
         <v>3</v>
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="I17" s="13"/>
       <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="23"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="23"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="23"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="23"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="23"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="23"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="23"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="23"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="23"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="23"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="23"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="23"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="23"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="23"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="23"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="23"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="23"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="23"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="23"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="23"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="23"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="23"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="23"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="23"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="23"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="23"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="23"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="23"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="23"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="23"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="23"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="23"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="23"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="23"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="23"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="23"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="23"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="23"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="23"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="23"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="23"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="23"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="23"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="23"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="23"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="23"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="23"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="23"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="23"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="23"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="23"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="23"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="23"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="23"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="23"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="23"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="23"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="23"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="23"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="23"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="23"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="23"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="23"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="23"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="23"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="23"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="23"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="23"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="23"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="23"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="23"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="23"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\ASYAR14\oomu\trunk\doc\worklogs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Name1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +58,7 @@
     <t xml:space="preserve">Use Case </t>
   </si>
   <si>
-    <t>1, 2, 4</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Creating use cases</t>
   </si>
   <si>
     <t>Ritade SSDs</t>
@@ -133,6 +122,36 @@
   </si>
   <si>
     <t xml:space="preserve">UseCaseID </t>
+  </si>
+  <si>
+    <t>Korrigerade Use Cases utefter feedback från handledning</t>
+  </si>
+  <si>
+    <t>Ändrade de fel som vi hittade på egen hand</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Ej applicerbart</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 5</t>
+  </si>
+  <si>
+    <t>Implementering av inloggningsdialog, och player klassen</t>
+  </si>
+  <si>
+    <t>3, 6, 9</t>
   </si>
 </sst>
 </file>
@@ -503,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,24 +768,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +820,7 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42304</v>
       </c>
@@ -809,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -835,7 +854,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42304</v>
       </c>
@@ -843,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -866,7 +885,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42304</v>
       </c>
@@ -874,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -900,27 +919,27 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42305</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="15">
         <v>4</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -931,7 +950,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42306</v>
       </c>
@@ -939,19 +958,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="15">
         <v>5</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -962,21 +981,24 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="15">
         <v>6</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -987,21 +1009,27 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42307</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="15">
         <v>7</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -1012,12 +1040,15 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42310</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1026,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -1037,13 +1068,24 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>42311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="15">
         <v>9</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -1054,13 +1096,27 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>42312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="15">
         <v>10</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -1071,13 +1127,25 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="15">
         <v>11</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -1088,13 +1156,13 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="I13" s="15">
         <v>12</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -1105,13 +1173,13 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="I14" s="21">
         <v>13</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -1122,7 +1190,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="J15" s="20"/>
       <c r="M15" s="20"/>
@@ -1132,7 +1200,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -1144,7 +1212,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -1157,10 +1225,10 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="I18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>13</v>
@@ -1178,12 +1246,14 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="I19" s="15">
         <v>1</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -1197,12 +1267,14 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="I20" s="15">
         <v>2</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -1216,12 +1288,14 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="I21" s="15">
         <v>3</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -1235,9 +1309,11 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="21">
+        <v>4</v>
+      </c>
       <c r="J22" s="27"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -1252,7 +1328,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -1269,7 +1345,7 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -1286,7 +1362,7 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -1301,7 +1377,7 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1316,7 +1392,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -1333,7 +1409,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -1350,7 +1426,7 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -1367,7 +1443,7 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -1384,7 +1460,7 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -1401,595 +1477,595 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
     </row>
   </sheetData>

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>3, 6, 9</t>
+  </si>
+  <si>
+    <t>Implementering av dialog vid inloggningsfel</t>
+  </si>
+  <si>
+    <t>Implementering av diverse databashanterings funktioner,</t>
   </si>
 </sst>
 </file>
@@ -769,7 +775,7 @@
   <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1163,12 @@
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4">
+        <v>42319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
       <c r="I13" s="15">
         <v>12</v>
       </c>
@@ -1175,6 +1186,15 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="21">
         <v>13</v>
       </c>

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Implementering av diverse databashanterings funktioner,</t>
+  </si>
+  <si>
+    <t>Implementering av nätverksfunktionalitet</t>
+  </si>
+  <si>
+    <t>3,6,7,12</t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
   <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,8 +1216,22 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>42325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
@@ -1220,7 +1240,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -1232,7 +1252,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>

--- a/doc/worklogs/Rasmus Worklog.xlsx
+++ b/doc/worklogs/Rasmus Worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Implementering av diverse databashanterings funktioner,</t>
+  </si>
+  <si>
+    <t>Implementering av nätverkfunktionalitet</t>
+  </si>
+  <si>
+    <t>Implmentering av nätverksfunktionalitet</t>
+  </si>
+  <si>
+    <t>4,6,7,8,10,12</t>
   </si>
 </sst>
 </file>
@@ -775,7 +784,7 @@
   <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1220,18 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4">
+        <v>42324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
@@ -1221,7 +1241,18 @@
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="4">
+        <v>42327</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
